--- a/out/results_2024-10-09 - Sao chép.xlsx
+++ b/out/results_2024-10-09 - Sao chép.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="182">
   <si>
     <t>6-3-[2]-5</t>
   </si>
@@ -518,6 +518,48 @@
   </si>
   <si>
     <t>7.841</t>
+  </si>
+  <si>
+    <t>sga</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.158</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.092</t>
   </si>
 </sst>
 </file>
@@ -553,9 +595,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,13 +898,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5946,6 +5992,2720 @@
         <v>1092002</v>
       </c>
     </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>168</v>
+      </c>
+      <c r="D222" t="s">
+        <v>138</v>
+      </c>
+      <c r="E222" t="s">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>270</v>
+      </c>
+      <c r="G222">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>168</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <v>252</v>
+      </c>
+      <c r="G223">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>168</v>
+      </c>
+      <c r="D224" t="s">
+        <v>146</v>
+      </c>
+      <c r="E224" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224">
+        <v>672</v>
+      </c>
+      <c r="G224">
+        <v>13328</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>168</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>512</v>
+      </c>
+      <c r="G225">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>168</v>
+      </c>
+      <c r="D226" t="s">
+        <v>138</v>
+      </c>
+      <c r="E226" t="s">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>384</v>
+      </c>
+      <c r="G226">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" t="s">
+        <v>168</v>
+      </c>
+      <c r="D227" t="s">
+        <v>138</v>
+      </c>
+      <c r="E227" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>432</v>
+      </c>
+      <c r="G227">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>7</v>
+      </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" t="s">
+        <v>168</v>
+      </c>
+      <c r="D228" t="s">
+        <v>138</v>
+      </c>
+      <c r="E228" t="s">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>576</v>
+      </c>
+      <c r="G228">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>8</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>168</v>
+      </c>
+      <c r="D229" t="s">
+        <v>138</v>
+      </c>
+      <c r="E229" t="s">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>432</v>
+      </c>
+      <c r="G229">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>168</v>
+      </c>
+      <c r="D230" t="s">
+        <v>138</v>
+      </c>
+      <c r="E230" t="s">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>270</v>
+      </c>
+      <c r="G230">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>168</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>252</v>
+      </c>
+      <c r="G231">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>168</v>
+      </c>
+      <c r="D232" t="s">
+        <v>146</v>
+      </c>
+      <c r="E232" t="s">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>672</v>
+      </c>
+      <c r="G232">
+        <v>13328</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>168</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>512</v>
+      </c>
+      <c r="G233">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>168</v>
+      </c>
+      <c r="D234" t="s">
+        <v>138</v>
+      </c>
+      <c r="E234" t="s">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>384</v>
+      </c>
+      <c r="G234">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>168</v>
+      </c>
+      <c r="D235" t="s">
+        <v>138</v>
+      </c>
+      <c r="E235" t="s">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>432</v>
+      </c>
+      <c r="G235">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>7</v>
+      </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>168</v>
+      </c>
+      <c r="D236" t="s">
+        <v>138</v>
+      </c>
+      <c r="E236" t="s">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>576</v>
+      </c>
+      <c r="G236">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" t="s">
+        <v>168</v>
+      </c>
+      <c r="D237" t="s">
+        <v>138</v>
+      </c>
+      <c r="E237" t="s">
+        <v>2</v>
+      </c>
+      <c r="F237">
+        <v>432</v>
+      </c>
+      <c r="G237">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>168</v>
+      </c>
+      <c r="D238">
+        <v>60</v>
+      </c>
+      <c r="E238" t="s">
+        <v>33</v>
+      </c>
+      <c r="F238">
+        <v>1440</v>
+      </c>
+      <c r="G238">
+        <v>35460</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" t="s">
+        <v>168</v>
+      </c>
+      <c r="D239" t="s">
+        <v>145</v>
+      </c>
+      <c r="E239" t="s">
+        <v>2</v>
+      </c>
+      <c r="F239">
+        <v>1800</v>
+      </c>
+      <c r="G239">
+        <v>50130</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" t="s">
+        <v>168</v>
+      </c>
+      <c r="D240" t="s">
+        <v>138</v>
+      </c>
+      <c r="E240" t="s">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>640</v>
+      </c>
+      <c r="G240">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>12</v>
+      </c>
+      <c r="B241" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" t="s">
+        <v>168</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>800</v>
+      </c>
+      <c r="G241">
+        <v>11030</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>13</v>
+      </c>
+      <c r="B242" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" t="s">
+        <v>168</v>
+      </c>
+      <c r="D242" t="s">
+        <v>145</v>
+      </c>
+      <c r="E242" t="s">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>704</v>
+      </c>
+      <c r="G242">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" t="s">
+        <v>168</v>
+      </c>
+      <c r="D243" t="s">
+        <v>138</v>
+      </c>
+      <c r="E243" t="s">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>880</v>
+      </c>
+      <c r="G243">
+        <v>13882</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" t="s">
+        <v>168</v>
+      </c>
+      <c r="D244">
+        <v>60</v>
+      </c>
+      <c r="E244" t="s">
+        <v>33</v>
+      </c>
+      <c r="F244">
+        <v>880</v>
+      </c>
+      <c r="G244">
+        <v>15785</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>16</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" t="s">
+        <v>168</v>
+      </c>
+      <c r="D245" t="s">
+        <v>138</v>
+      </c>
+      <c r="E245" t="s">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>1100</v>
+      </c>
+      <c r="G245">
+        <v>20790</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>17</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" t="s">
+        <v>168</v>
+      </c>
+      <c r="D246" t="s">
+        <v>152</v>
+      </c>
+      <c r="E246" t="s">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>1040</v>
+      </c>
+      <c r="G246">
+        <v>16588</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" t="s">
+        <v>168</v>
+      </c>
+      <c r="D247" t="s">
+        <v>169</v>
+      </c>
+      <c r="E247" t="s">
+        <v>2</v>
+      </c>
+      <c r="F247">
+        <v>1120</v>
+      </c>
+      <c r="G247">
+        <v>20048</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>19</v>
+      </c>
+      <c r="B248" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248" t="s">
+        <v>168</v>
+      </c>
+      <c r="D248" s="2">
+        <v>1584</v>
+      </c>
+      <c r="E248" t="s">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>2100</v>
+      </c>
+      <c r="G248">
+        <v>79485</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>20</v>
+      </c>
+      <c r="B249" t="s">
+        <v>26</v>
+      </c>
+      <c r="C249" t="s">
+        <v>168</v>
+      </c>
+      <c r="D249" t="s">
+        <v>170</v>
+      </c>
+      <c r="E249" t="s">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>1500</v>
+      </c>
+      <c r="G249">
+        <v>34125</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>21</v>
+      </c>
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" t="s">
+        <v>168</v>
+      </c>
+      <c r="D250" t="s">
+        <v>157</v>
+      </c>
+      <c r="E250" t="s">
+        <v>2</v>
+      </c>
+      <c r="F250">
+        <v>1875</v>
+      </c>
+      <c r="G250">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>22</v>
+      </c>
+      <c r="B251" t="s">
+        <v>28</v>
+      </c>
+      <c r="C251" t="s">
+        <v>168</v>
+      </c>
+      <c r="D251" t="s">
+        <v>144</v>
+      </c>
+      <c r="E251" t="s">
+        <v>2</v>
+      </c>
+      <c r="F251">
+        <v>1600</v>
+      </c>
+      <c r="G251">
+        <v>40160</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>23</v>
+      </c>
+      <c r="B252" t="s">
+        <v>29</v>
+      </c>
+      <c r="C252" t="s">
+        <v>168</v>
+      </c>
+      <c r="D252" t="s">
+        <v>144</v>
+      </c>
+      <c r="E252" t="s">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>2000</v>
+      </c>
+      <c r="G252">
+        <v>51040</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>30</v>
+      </c>
+      <c r="C253" t="s">
+        <v>168</v>
+      </c>
+      <c r="D253" t="s">
+        <v>152</v>
+      </c>
+      <c r="E253" t="s">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>1600</v>
+      </c>
+      <c r="G253">
+        <v>40160</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>25</v>
+      </c>
+      <c r="B254" t="s">
+        <v>31</v>
+      </c>
+      <c r="C254" t="s">
+        <v>168</v>
+      </c>
+      <c r="D254" s="2">
+        <v>2303</v>
+      </c>
+      <c r="E254" t="s">
+        <v>2</v>
+      </c>
+      <c r="F254">
+        <v>2125</v>
+      </c>
+      <c r="G254">
+        <v>59160</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>26</v>
+      </c>
+      <c r="B255" t="s">
+        <v>32</v>
+      </c>
+      <c r="C255" t="s">
+        <v>168</v>
+      </c>
+      <c r="D255">
+        <v>60</v>
+      </c>
+      <c r="E255" t="s">
+        <v>33</v>
+      </c>
+      <c r="F255">
+        <v>3456</v>
+      </c>
+      <c r="G255">
+        <v>202032</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
+        <v>34</v>
+      </c>
+      <c r="C256" t="s">
+        <v>168</v>
+      </c>
+      <c r="D256" t="s">
+        <v>146</v>
+      </c>
+      <c r="E256" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <v>2700</v>
+      </c>
+      <c r="G256">
+        <v>84960</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>28</v>
+      </c>
+      <c r="B257" t="s">
+        <v>35</v>
+      </c>
+      <c r="C257" t="s">
+        <v>168</v>
+      </c>
+      <c r="D257" t="s">
+        <v>38</v>
+      </c>
+      <c r="E257" t="s">
+        <v>2</v>
+      </c>
+      <c r="F257">
+        <v>2250</v>
+      </c>
+      <c r="G257">
+        <v>68040</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>29</v>
+      </c>
+      <c r="B258" t="s">
+        <v>36</v>
+      </c>
+      <c r="C258" t="s">
+        <v>168</v>
+      </c>
+      <c r="D258" t="s">
+        <v>152</v>
+      </c>
+      <c r="E258" t="s">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>2850</v>
+      </c>
+      <c r="G258">
+        <v>96615</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>30</v>
+      </c>
+      <c r="B259" t="s">
+        <v>37</v>
+      </c>
+      <c r="C259" t="s">
+        <v>168</v>
+      </c>
+      <c r="D259">
+        <v>60</v>
+      </c>
+      <c r="E259" t="s">
+        <v>33</v>
+      </c>
+      <c r="F259">
+        <v>2375</v>
+      </c>
+      <c r="G259">
+        <v>77710</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>31</v>
+      </c>
+      <c r="B260" t="s">
+        <v>39</v>
+      </c>
+      <c r="C260" t="s">
+        <v>168</v>
+      </c>
+      <c r="D260" t="s">
+        <v>171</v>
+      </c>
+      <c r="E260" t="s">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>3420</v>
+      </c>
+      <c r="G260">
+        <v>134406</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>32</v>
+      </c>
+      <c r="B261" t="s">
+        <v>40</v>
+      </c>
+      <c r="C261" t="s">
+        <v>168</v>
+      </c>
+      <c r="D261">
+        <v>60</v>
+      </c>
+      <c r="E261" t="s">
+        <v>33</v>
+      </c>
+      <c r="F261">
+        <v>2850</v>
+      </c>
+      <c r="G261">
+        <v>106077</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>33</v>
+      </c>
+      <c r="B262" t="s">
+        <v>41</v>
+      </c>
+      <c r="C262" t="s">
+        <v>168</v>
+      </c>
+      <c r="D262" t="s">
+        <v>172</v>
+      </c>
+      <c r="E262" t="s">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>2500</v>
+      </c>
+      <c r="G262">
+        <v>88200</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>34</v>
+      </c>
+      <c r="B263" t="s">
+        <v>42</v>
+      </c>
+      <c r="C263" t="s">
+        <v>168</v>
+      </c>
+      <c r="D263">
+        <v>60</v>
+      </c>
+      <c r="E263" t="s">
+        <v>33</v>
+      </c>
+      <c r="F263">
+        <v>5880</v>
+      </c>
+      <c r="G263">
+        <v>557550</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>35</v>
+      </c>
+      <c r="B264" t="s">
+        <v>43</v>
+      </c>
+      <c r="C264" t="s">
+        <v>168</v>
+      </c>
+      <c r="D264" s="2">
+        <v>17180</v>
+      </c>
+      <c r="E264" t="s">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>3150</v>
+      </c>
+      <c r="G264">
+        <v>99540</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>36</v>
+      </c>
+      <c r="B265" t="s">
+        <v>44</v>
+      </c>
+      <c r="C265" t="s">
+        <v>168</v>
+      </c>
+      <c r="D265">
+        <v>60</v>
+      </c>
+      <c r="E265" t="s">
+        <v>33</v>
+      </c>
+      <c r="F265">
+        <v>3300</v>
+      </c>
+      <c r="G265">
+        <v>111760</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>37</v>
+      </c>
+      <c r="B266" t="s">
+        <v>46</v>
+      </c>
+      <c r="C266" t="s">
+        <v>168</v>
+      </c>
+      <c r="D266">
+        <v>60</v>
+      </c>
+      <c r="E266" t="s">
+        <v>33</v>
+      </c>
+      <c r="F266">
+        <v>3450</v>
+      </c>
+      <c r="G266">
+        <v>124890</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>38</v>
+      </c>
+      <c r="B267" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267" t="s">
+        <v>168</v>
+      </c>
+      <c r="D267">
+        <v>60</v>
+      </c>
+      <c r="E267" t="s">
+        <v>33</v>
+      </c>
+      <c r="F267">
+        <v>8448</v>
+      </c>
+      <c r="G267">
+        <v>1126224</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>39</v>
+      </c>
+      <c r="B268" t="s">
+        <v>48</v>
+      </c>
+      <c r="C268" t="s">
+        <v>168</v>
+      </c>
+      <c r="D268">
+        <v>60</v>
+      </c>
+      <c r="E268" t="s">
+        <v>33</v>
+      </c>
+      <c r="F268">
+        <v>5040</v>
+      </c>
+      <c r="G268">
+        <v>306768</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>40</v>
+      </c>
+      <c r="B269" t="s">
+        <v>49</v>
+      </c>
+      <c r="C269" t="s">
+        <v>168</v>
+      </c>
+      <c r="D269">
+        <v>60</v>
+      </c>
+      <c r="E269" t="s">
+        <v>33</v>
+      </c>
+      <c r="F269">
+        <v>5184</v>
+      </c>
+      <c r="G269">
+        <v>233136</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>41</v>
+      </c>
+      <c r="B270" t="s">
+        <v>50</v>
+      </c>
+      <c r="C270" t="s">
+        <v>168</v>
+      </c>
+      <c r="D270">
+        <v>60</v>
+      </c>
+      <c r="E270" t="s">
+        <v>33</v>
+      </c>
+      <c r="F270">
+        <v>4320</v>
+      </c>
+      <c r="G270">
+        <v>187452</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>42</v>
+      </c>
+      <c r="B271" t="s">
+        <v>51</v>
+      </c>
+      <c r="C271" t="s">
+        <v>168</v>
+      </c>
+      <c r="D271" t="s">
+        <v>173</v>
+      </c>
+      <c r="E271" t="s">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>4500</v>
+      </c>
+      <c r="G271">
+        <v>207300</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>43</v>
+      </c>
+      <c r="B272" t="s">
+        <v>52</v>
+      </c>
+      <c r="C272" t="s">
+        <v>168</v>
+      </c>
+      <c r="D272">
+        <v>60</v>
+      </c>
+      <c r="E272" t="s">
+        <v>33</v>
+      </c>
+      <c r="F272">
+        <v>4500</v>
+      </c>
+      <c r="G272">
+        <v>187125</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>44</v>
+      </c>
+      <c r="B273" t="s">
+        <v>53</v>
+      </c>
+      <c r="C273" t="s">
+        <v>168</v>
+      </c>
+      <c r="D273" t="s">
+        <v>174</v>
+      </c>
+      <c r="E273" t="s">
+        <v>2</v>
+      </c>
+      <c r="F273">
+        <v>3750</v>
+      </c>
+      <c r="G273">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>45</v>
+      </c>
+      <c r="B274" t="s">
+        <v>54</v>
+      </c>
+      <c r="C274" t="s">
+        <v>168</v>
+      </c>
+      <c r="D274">
+        <v>60</v>
+      </c>
+      <c r="E274" t="s">
+        <v>33</v>
+      </c>
+      <c r="F274">
+        <v>4680</v>
+      </c>
+      <c r="G274">
+        <v>205920</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>46</v>
+      </c>
+      <c r="B275" t="s">
+        <v>55</v>
+      </c>
+      <c r="C275" t="s">
+        <v>168</v>
+      </c>
+      <c r="D275">
+        <v>60</v>
+      </c>
+      <c r="E275" t="s">
+        <v>33</v>
+      </c>
+      <c r="F275">
+        <v>12636</v>
+      </c>
+      <c r="G275">
+        <v>2477358</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>47</v>
+      </c>
+      <c r="B276" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" t="s">
+        <v>168</v>
+      </c>
+      <c r="D276">
+        <v>60</v>
+      </c>
+      <c r="E276" t="s">
+        <v>33</v>
+      </c>
+      <c r="F276">
+        <v>4860</v>
+      </c>
+      <c r="G276">
+        <v>225855</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>48</v>
+      </c>
+      <c r="B277" t="s">
+        <v>58</v>
+      </c>
+      <c r="C277" t="s">
+        <v>168</v>
+      </c>
+      <c r="D277">
+        <v>60</v>
+      </c>
+      <c r="E277" t="s">
+        <v>33</v>
+      </c>
+      <c r="F277">
+        <v>8820</v>
+      </c>
+      <c r="G277">
+        <v>866628</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>49</v>
+      </c>
+      <c r="B278" t="s">
+        <v>59</v>
+      </c>
+      <c r="C278" t="s">
+        <v>168</v>
+      </c>
+      <c r="D278">
+        <v>60</v>
+      </c>
+      <c r="E278" t="s">
+        <v>33</v>
+      </c>
+      <c r="F278">
+        <v>6048</v>
+      </c>
+      <c r="G278">
+        <v>337176</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>50</v>
+      </c>
+      <c r="B279" t="s">
+        <v>60</v>
+      </c>
+      <c r="C279" t="s">
+        <v>168</v>
+      </c>
+      <c r="D279">
+        <v>60</v>
+      </c>
+      <c r="E279" t="s">
+        <v>33</v>
+      </c>
+      <c r="F279">
+        <v>7056</v>
+      </c>
+      <c r="G279">
+        <v>411054</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>51</v>
+      </c>
+      <c r="B280" t="s">
+        <v>61</v>
+      </c>
+      <c r="C280" t="s">
+        <v>168</v>
+      </c>
+      <c r="D280">
+        <v>60</v>
+      </c>
+      <c r="E280" t="s">
+        <v>33</v>
+      </c>
+      <c r="F280">
+        <v>7308</v>
+      </c>
+      <c r="G280">
+        <v>446310</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>52</v>
+      </c>
+      <c r="B281" t="s">
+        <v>62</v>
+      </c>
+      <c r="C281" t="s">
+        <v>168</v>
+      </c>
+      <c r="D281">
+        <v>60</v>
+      </c>
+      <c r="E281" t="s">
+        <v>33</v>
+      </c>
+      <c r="F281">
+        <v>6264</v>
+      </c>
+      <c r="G281">
+        <v>366966</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>53</v>
+      </c>
+      <c r="B282" t="s">
+        <v>63</v>
+      </c>
+      <c r="C282" t="s">
+        <v>168</v>
+      </c>
+      <c r="D282">
+        <v>60</v>
+      </c>
+      <c r="E282" t="s">
+        <v>33</v>
+      </c>
+      <c r="F282">
+        <v>8526</v>
+      </c>
+      <c r="G282">
+        <v>590324</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>54</v>
+      </c>
+      <c r="B283" t="s">
+        <v>64</v>
+      </c>
+      <c r="C283" t="s">
+        <v>168</v>
+      </c>
+      <c r="D283">
+        <v>60</v>
+      </c>
+      <c r="E283" t="s">
+        <v>33</v>
+      </c>
+      <c r="F283">
+        <v>7308</v>
+      </c>
+      <c r="G283">
+        <v>479283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>55</v>
+      </c>
+      <c r="B284" t="s">
+        <v>65</v>
+      </c>
+      <c r="C284" t="s">
+        <v>168</v>
+      </c>
+      <c r="D284">
+        <v>60</v>
+      </c>
+      <c r="E284" t="s">
+        <v>33</v>
+      </c>
+      <c r="F284">
+        <v>16800</v>
+      </c>
+      <c r="G284">
+        <v>4341540</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>56</v>
+      </c>
+      <c r="B285" t="s">
+        <v>66</v>
+      </c>
+      <c r="C285" t="s">
+        <v>168</v>
+      </c>
+      <c r="D285">
+        <v>60</v>
+      </c>
+      <c r="E285" t="s">
+        <v>33</v>
+      </c>
+      <c r="F285">
+        <v>6480</v>
+      </c>
+      <c r="G285">
+        <v>398340</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>57</v>
+      </c>
+      <c r="B286" t="s">
+        <v>67</v>
+      </c>
+      <c r="C286" t="s">
+        <v>168</v>
+      </c>
+      <c r="D286">
+        <v>60</v>
+      </c>
+      <c r="E286" t="s">
+        <v>33</v>
+      </c>
+      <c r="F286">
+        <v>7560</v>
+      </c>
+      <c r="G286">
+        <v>519540</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>58</v>
+      </c>
+      <c r="B287" t="s">
+        <v>68</v>
+      </c>
+      <c r="C287" t="s">
+        <v>168</v>
+      </c>
+      <c r="D287">
+        <v>60</v>
+      </c>
+      <c r="E287" t="s">
+        <v>33</v>
+      </c>
+      <c r="F287">
+        <v>8820</v>
+      </c>
+      <c r="G287">
+        <v>638505</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>59</v>
+      </c>
+      <c r="B288" t="s">
+        <v>69</v>
+      </c>
+      <c r="C288" t="s">
+        <v>168</v>
+      </c>
+      <c r="D288">
+        <v>60</v>
+      </c>
+      <c r="E288" t="s">
+        <v>33</v>
+      </c>
+      <c r="F288">
+        <v>9114</v>
+      </c>
+      <c r="G288">
+        <v>688975</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>60</v>
+      </c>
+      <c r="B289" t="s">
+        <v>70</v>
+      </c>
+      <c r="C289" t="s">
+        <v>168</v>
+      </c>
+      <c r="D289" t="s">
+        <v>175</v>
+      </c>
+      <c r="E289" t="s">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>3906</v>
+      </c>
+      <c r="G289">
+        <v>140337</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>61</v>
+      </c>
+      <c r="B290" t="s">
+        <v>71</v>
+      </c>
+      <c r="C290" t="s">
+        <v>168</v>
+      </c>
+      <c r="D290">
+        <v>60</v>
+      </c>
+      <c r="E290" t="s">
+        <v>33</v>
+      </c>
+      <c r="F290">
+        <v>12800</v>
+      </c>
+      <c r="G290">
+        <v>1759360</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>62</v>
+      </c>
+      <c r="B291" t="s">
+        <v>72</v>
+      </c>
+      <c r="C291" t="s">
+        <v>168</v>
+      </c>
+      <c r="D291">
+        <v>60</v>
+      </c>
+      <c r="E291" t="s">
+        <v>33</v>
+      </c>
+      <c r="F291">
+        <v>10752</v>
+      </c>
+      <c r="G291">
+        <v>898240</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>63</v>
+      </c>
+      <c r="B292" t="s">
+        <v>74</v>
+      </c>
+      <c r="C292" t="s">
+        <v>168</v>
+      </c>
+      <c r="D292">
+        <v>60</v>
+      </c>
+      <c r="E292" t="s">
+        <v>33</v>
+      </c>
+      <c r="F292">
+        <v>9408</v>
+      </c>
+      <c r="G292">
+        <v>741776</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>64</v>
+      </c>
+      <c r="B293" t="s">
+        <v>75</v>
+      </c>
+      <c r="C293" t="s">
+        <v>168</v>
+      </c>
+      <c r="D293" t="s">
+        <v>176</v>
+      </c>
+      <c r="E293" t="s">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>4032</v>
+      </c>
+      <c r="G293">
+        <v>152640</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>65</v>
+      </c>
+      <c r="B294" t="s">
+        <v>76</v>
+      </c>
+      <c r="C294" t="s">
+        <v>168</v>
+      </c>
+      <c r="D294">
+        <v>60</v>
+      </c>
+      <c r="E294" t="s">
+        <v>33</v>
+      </c>
+      <c r="F294">
+        <v>23232</v>
+      </c>
+      <c r="G294">
+        <v>8248416</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>66</v>
+      </c>
+      <c r="B295" t="s">
+        <v>77</v>
+      </c>
+      <c r="C295" t="s">
+        <v>168</v>
+      </c>
+      <c r="D295">
+        <v>60</v>
+      </c>
+      <c r="E295" t="s">
+        <v>33</v>
+      </c>
+      <c r="F295">
+        <v>11088</v>
+      </c>
+      <c r="G295">
+        <v>963501</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>67</v>
+      </c>
+      <c r="B296" t="s">
+        <v>79</v>
+      </c>
+      <c r="C296" t="s">
+        <v>168</v>
+      </c>
+      <c r="D296">
+        <v>60</v>
+      </c>
+      <c r="E296" t="s">
+        <v>33</v>
+      </c>
+      <c r="F296">
+        <v>9702</v>
+      </c>
+      <c r="G296">
+        <v>796950</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>68</v>
+      </c>
+      <c r="B297" t="s">
+        <v>80</v>
+      </c>
+      <c r="C297" t="s">
+        <v>168</v>
+      </c>
+      <c r="D297">
+        <v>60</v>
+      </c>
+      <c r="E297" t="s">
+        <v>33</v>
+      </c>
+      <c r="F297">
+        <v>12672</v>
+      </c>
+      <c r="G297">
+        <v>1236312</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>69</v>
+      </c>
+      <c r="B298" t="s">
+        <v>81</v>
+      </c>
+      <c r="C298" t="s">
+        <v>168</v>
+      </c>
+      <c r="D298">
+        <v>60</v>
+      </c>
+      <c r="E298" t="s">
+        <v>33</v>
+      </c>
+      <c r="F298">
+        <v>11088</v>
+      </c>
+      <c r="G298">
+        <v>1014288</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>70</v>
+      </c>
+      <c r="B299" t="s">
+        <v>82</v>
+      </c>
+      <c r="C299" t="s">
+        <v>168</v>
+      </c>
+      <c r="D299" t="s">
+        <v>177</v>
+      </c>
+      <c r="E299" t="s">
+        <v>2</v>
+      </c>
+      <c r="F299">
+        <v>4158</v>
+      </c>
+      <c r="G299">
+        <v>165627</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>71</v>
+      </c>
+      <c r="B300" t="s">
+        <v>83</v>
+      </c>
+      <c r="C300" t="s">
+        <v>168</v>
+      </c>
+      <c r="D300">
+        <v>60</v>
+      </c>
+      <c r="E300" t="s">
+        <v>33</v>
+      </c>
+      <c r="F300">
+        <v>11424</v>
+      </c>
+      <c r="G300">
+        <v>1031492</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>72</v>
+      </c>
+      <c r="B301" t="s">
+        <v>85</v>
+      </c>
+      <c r="C301" t="s">
+        <v>168</v>
+      </c>
+      <c r="D301">
+        <v>60</v>
+      </c>
+      <c r="E301" t="s">
+        <v>33</v>
+      </c>
+      <c r="F301">
+        <v>9996</v>
+      </c>
+      <c r="G301">
+        <v>854539</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>73</v>
+      </c>
+      <c r="B302" t="s">
+        <v>86</v>
+      </c>
+      <c r="C302" t="s">
+        <v>168</v>
+      </c>
+      <c r="D302">
+        <v>60</v>
+      </c>
+      <c r="E302" t="s">
+        <v>33</v>
+      </c>
+      <c r="F302">
+        <v>13056</v>
+      </c>
+      <c r="G302">
+        <v>1322464</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>74</v>
+      </c>
+      <c r="B303" t="s">
+        <v>87</v>
+      </c>
+      <c r="C303" t="s">
+        <v>168</v>
+      </c>
+      <c r="D303">
+        <v>60</v>
+      </c>
+      <c r="E303" t="s">
+        <v>33</v>
+      </c>
+      <c r="F303">
+        <v>11424</v>
+      </c>
+      <c r="G303">
+        <v>1086572</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>75</v>
+      </c>
+      <c r="B304" t="s">
+        <v>88</v>
+      </c>
+      <c r="C304" t="s">
+        <v>168</v>
+      </c>
+      <c r="D304" t="s">
+        <v>178</v>
+      </c>
+      <c r="E304" t="s">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>4284</v>
+      </c>
+      <c r="G304">
+        <v>179316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>76</v>
+      </c>
+      <c r="B305" t="s">
+        <v>89</v>
+      </c>
+      <c r="C305" t="s">
+        <v>168</v>
+      </c>
+      <c r="D305">
+        <v>60</v>
+      </c>
+      <c r="E305" t="s">
+        <v>33</v>
+      </c>
+      <c r="F305">
+        <v>10290</v>
+      </c>
+      <c r="G305">
+        <v>914585</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>77</v>
+      </c>
+      <c r="B306" t="s">
+        <v>90</v>
+      </c>
+      <c r="C306" t="s">
+        <v>168</v>
+      </c>
+      <c r="D306">
+        <v>60</v>
+      </c>
+      <c r="E306" t="s">
+        <v>33</v>
+      </c>
+      <c r="F306">
+        <v>13440</v>
+      </c>
+      <c r="G306">
+        <v>1412040</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>78</v>
+      </c>
+      <c r="B307" t="s">
+        <v>91</v>
+      </c>
+      <c r="C307" t="s">
+        <v>168</v>
+      </c>
+      <c r="D307">
+        <v>60</v>
+      </c>
+      <c r="E307" t="s">
+        <v>33</v>
+      </c>
+      <c r="F307">
+        <v>11760</v>
+      </c>
+      <c r="G307">
+        <v>1161860</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>79</v>
+      </c>
+      <c r="B308" t="s">
+        <v>92</v>
+      </c>
+      <c r="C308" t="s">
+        <v>168</v>
+      </c>
+      <c r="D308" t="s">
+        <v>179</v>
+      </c>
+      <c r="E308" t="s">
+        <v>2</v>
+      </c>
+      <c r="F308">
+        <v>4410</v>
+      </c>
+      <c r="G308">
+        <v>193725</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>80</v>
+      </c>
+      <c r="B309" t="s">
+        <v>93</v>
+      </c>
+      <c r="C309" t="s">
+        <v>168</v>
+      </c>
+      <c r="D309" t="s">
+        <v>180</v>
+      </c>
+      <c r="E309" t="s">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <v>5145</v>
+      </c>
+      <c r="G309">
+        <v>217035</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>81</v>
+      </c>
+      <c r="B310" t="s">
+        <v>94</v>
+      </c>
+      <c r="C310" t="s">
+        <v>168</v>
+      </c>
+      <c r="D310">
+        <v>60</v>
+      </c>
+      <c r="E310" t="s">
+        <v>33</v>
+      </c>
+      <c r="F310">
+        <v>29376</v>
+      </c>
+      <c r="G310">
+        <v>13139640</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>82</v>
+      </c>
+      <c r="B311" t="s">
+        <v>95</v>
+      </c>
+      <c r="C311" t="s">
+        <v>168</v>
+      </c>
+      <c r="D311">
+        <v>60</v>
+      </c>
+      <c r="E311" t="s">
+        <v>33</v>
+      </c>
+      <c r="F311">
+        <v>12960</v>
+      </c>
+      <c r="G311">
+        <v>1805256</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>83</v>
+      </c>
+      <c r="B312" t="s">
+        <v>97</v>
+      </c>
+      <c r="C312" t="s">
+        <v>168</v>
+      </c>
+      <c r="D312" t="s">
+        <v>181</v>
+      </c>
+      <c r="E312" t="s">
+        <v>2</v>
+      </c>
+      <c r="F312">
+        <v>4536</v>
+      </c>
+      <c r="G312">
+        <v>208872</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>84</v>
+      </c>
+      <c r="B313" t="s">
+        <v>98</v>
+      </c>
+      <c r="C313" t="s">
+        <v>168</v>
+      </c>
+      <c r="D313">
+        <v>60</v>
+      </c>
+      <c r="E313" t="s">
+        <v>33</v>
+      </c>
+      <c r="F313">
+        <v>13824</v>
+      </c>
+      <c r="G313">
+        <v>1505088</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>85</v>
+      </c>
+      <c r="B314" t="s">
+        <v>99</v>
+      </c>
+      <c r="C314" t="s">
+        <v>168</v>
+      </c>
+      <c r="D314">
+        <v>60</v>
+      </c>
+      <c r="E314" t="s">
+        <v>33</v>
+      </c>
+      <c r="F314">
+        <v>15552</v>
+      </c>
+      <c r="G314">
+        <v>1805256</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>86</v>
+      </c>
+      <c r="B315" t="s">
+        <v>101</v>
+      </c>
+      <c r="C315" t="s">
+        <v>168</v>
+      </c>
+      <c r="D315">
+        <v>60</v>
+      </c>
+      <c r="E315" t="s">
+        <v>33</v>
+      </c>
+      <c r="F315">
+        <v>12348</v>
+      </c>
+      <c r="G315">
+        <v>977130</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>87</v>
+      </c>
+      <c r="B316" t="s">
+        <v>102</v>
+      </c>
+      <c r="C316" t="s">
+        <v>168</v>
+      </c>
+      <c r="D316">
+        <v>60</v>
+      </c>
+      <c r="E316" t="s">
+        <v>33</v>
+      </c>
+      <c r="F316">
+        <v>10584</v>
+      </c>
+      <c r="G316">
+        <v>804888</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>88</v>
+      </c>
+      <c r="B317" t="s">
+        <v>103</v>
+      </c>
+      <c r="C317" t="s">
+        <v>168</v>
+      </c>
+      <c r="D317">
+        <v>60</v>
+      </c>
+      <c r="E317" t="s">
+        <v>33</v>
+      </c>
+      <c r="F317">
+        <v>15984</v>
+      </c>
+      <c r="G317">
+        <v>1918968</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>89</v>
+      </c>
+      <c r="B318" t="s">
+        <v>105</v>
+      </c>
+      <c r="C318" t="s">
+        <v>168</v>
+      </c>
+      <c r="D318">
+        <v>60</v>
+      </c>
+      <c r="E318" t="s">
+        <v>33</v>
+      </c>
+      <c r="F318">
+        <v>14208</v>
+      </c>
+      <c r="G318">
+        <v>1601656</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>90</v>
+      </c>
+      <c r="B319" t="s">
+        <v>106</v>
+      </c>
+      <c r="C319" t="s">
+        <v>168</v>
+      </c>
+      <c r="D319">
+        <v>60</v>
+      </c>
+      <c r="E319" t="s">
+        <v>33</v>
+      </c>
+      <c r="F319">
+        <v>17982</v>
+      </c>
+      <c r="G319">
+        <v>2401596</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>91</v>
+      </c>
+      <c r="B320" t="s">
+        <v>107</v>
+      </c>
+      <c r="C320" t="s">
+        <v>168</v>
+      </c>
+      <c r="D320">
+        <v>60</v>
+      </c>
+      <c r="E320" t="s">
+        <v>33</v>
+      </c>
+      <c r="F320">
+        <v>15984</v>
+      </c>
+      <c r="G320">
+        <v>1993671</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>92</v>
+      </c>
+      <c r="B321" t="s">
+        <v>108</v>
+      </c>
+      <c r="C321" t="s">
+        <v>168</v>
+      </c>
+      <c r="D321">
+        <v>60</v>
+      </c>
+      <c r="E321" t="s">
+        <v>33</v>
+      </c>
+      <c r="F321">
+        <v>12691</v>
+      </c>
+      <c r="G321">
+        <v>1042216</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>93</v>
+      </c>
+      <c r="B322" t="s">
+        <v>109</v>
+      </c>
+      <c r="C322" t="s">
+        <v>168</v>
+      </c>
+      <c r="D322">
+        <v>60</v>
+      </c>
+      <c r="E322" t="s">
+        <v>33</v>
+      </c>
+      <c r="F322">
+        <v>14592</v>
+      </c>
+      <c r="G322">
+        <v>1701792</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>94</v>
+      </c>
+      <c r="B323" t="s">
+        <v>110</v>
+      </c>
+      <c r="C323" t="s">
+        <v>168</v>
+      </c>
+      <c r="D323">
+        <v>60</v>
+      </c>
+      <c r="E323" t="s">
+        <v>33</v>
+      </c>
+      <c r="F323">
+        <v>16416</v>
+      </c>
+      <c r="G323">
+        <v>2036724</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>95</v>
+      </c>
+      <c r="B324" t="s">
+        <v>112</v>
+      </c>
+      <c r="C324" t="s">
+        <v>168</v>
+      </c>
+      <c r="D324">
+        <v>60</v>
+      </c>
+      <c r="E324" t="s">
+        <v>33</v>
+      </c>
+      <c r="F324">
+        <v>16416</v>
+      </c>
+      <c r="G324">
+        <v>2116980</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>96</v>
+      </c>
+      <c r="B325" t="s">
+        <v>113</v>
+      </c>
+      <c r="C325" t="s">
+        <v>168</v>
+      </c>
+      <c r="D325">
+        <v>60</v>
+      </c>
+      <c r="E325" t="s">
+        <v>33</v>
+      </c>
+      <c r="F325">
+        <v>18468</v>
+      </c>
+      <c r="G325">
+        <v>2547558</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>97</v>
+      </c>
+      <c r="B326" t="s">
+        <v>114</v>
+      </c>
+      <c r="C326" t="s">
+        <v>168</v>
+      </c>
+      <c r="D326">
+        <v>60</v>
+      </c>
+      <c r="E326" t="s">
+        <v>33</v>
+      </c>
+      <c r="F326">
+        <v>13034</v>
+      </c>
+      <c r="G326">
+        <v>1109885</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>98</v>
+      </c>
+      <c r="B327" t="s">
+        <v>115</v>
+      </c>
+      <c r="C327" t="s">
+        <v>168</v>
+      </c>
+      <c r="D327">
+        <v>60</v>
+      </c>
+      <c r="E327" t="s">
+        <v>33</v>
+      </c>
+      <c r="F327">
+        <v>38532</v>
+      </c>
+      <c r="G327">
+        <v>22552335</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>99</v>
+      </c>
+      <c r="B328" t="s">
+        <v>116</v>
+      </c>
+      <c r="C328" t="s">
+        <v>168</v>
+      </c>
+      <c r="D328">
+        <v>60</v>
+      </c>
+      <c r="E328" t="s">
+        <v>33</v>
+      </c>
+      <c r="F328">
+        <v>14976</v>
+      </c>
+      <c r="G328">
+        <v>1805544</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>100</v>
+      </c>
+      <c r="B329" t="s">
+        <v>117</v>
+      </c>
+      <c r="C329" t="s">
+        <v>168</v>
+      </c>
+      <c r="D329">
+        <v>60</v>
+      </c>
+      <c r="E329" t="s">
+        <v>33</v>
+      </c>
+      <c r="F329">
+        <v>16848</v>
+      </c>
+      <c r="G329">
+        <v>2158572</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>101</v>
+      </c>
+      <c r="B330" t="s">
+        <v>119</v>
+      </c>
+      <c r="C330" t="s">
+        <v>168</v>
+      </c>
+      <c r="D330">
+        <v>60</v>
+      </c>
+      <c r="E330" t="s">
+        <v>33</v>
+      </c>
+      <c r="F330">
+        <v>16848</v>
+      </c>
+      <c r="G330">
+        <v>2244645</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>102</v>
+      </c>
+      <c r="B331" t="s">
+        <v>120</v>
+      </c>
+      <c r="C331" t="s">
+        <v>168</v>
+      </c>
+      <c r="D331">
+        <v>60</v>
+      </c>
+      <c r="E331" t="s">
+        <v>33</v>
+      </c>
+      <c r="F331">
+        <v>18954</v>
+      </c>
+      <c r="G331">
+        <v>2698488</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>103</v>
+      </c>
+      <c r="B332" t="s">
+        <v>121</v>
+      </c>
+      <c r="C332" t="s">
+        <v>168</v>
+      </c>
+      <c r="D332">
+        <v>60</v>
+      </c>
+      <c r="E332" t="s">
+        <v>33</v>
+      </c>
+      <c r="F332">
+        <v>13377</v>
+      </c>
+      <c r="G332">
+        <v>1180179</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>104</v>
+      </c>
+      <c r="B333" t="s">
+        <v>122</v>
+      </c>
+      <c r="C333" t="s">
+        <v>168</v>
+      </c>
+      <c r="D333">
+        <v>60</v>
+      </c>
+      <c r="E333" t="s">
+        <v>33</v>
+      </c>
+      <c r="F333">
+        <v>20000</v>
+      </c>
+      <c r="G333">
+        <v>4154800</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>105</v>
+      </c>
+      <c r="B334" t="s">
+        <v>123</v>
+      </c>
+      <c r="C334" t="s">
+        <v>168</v>
+      </c>
+      <c r="D334">
+        <v>60</v>
+      </c>
+      <c r="E334" t="s">
+        <v>33</v>
+      </c>
+      <c r="F334">
+        <v>15360</v>
+      </c>
+      <c r="G334">
+        <v>1912960</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>106</v>
+      </c>
+      <c r="B335" t="s">
+        <v>124</v>
+      </c>
+      <c r="C335" t="s">
+        <v>168</v>
+      </c>
+      <c r="D335">
+        <v>60</v>
+      </c>
+      <c r="E335" t="s">
+        <v>33</v>
+      </c>
+      <c r="F335">
+        <v>17280</v>
+      </c>
+      <c r="G335">
+        <v>2376720</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>107</v>
+      </c>
+      <c r="B336" t="s">
+        <v>125</v>
+      </c>
+      <c r="C336" t="s">
+        <v>168</v>
+      </c>
+      <c r="D336">
+        <v>60</v>
+      </c>
+      <c r="E336" t="s">
+        <v>33</v>
+      </c>
+      <c r="F336">
+        <v>21600</v>
+      </c>
+      <c r="G336">
+        <v>3388320</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>108</v>
+      </c>
+      <c r="B337" t="s">
+        <v>127</v>
+      </c>
+      <c r="C337" t="s">
+        <v>168</v>
+      </c>
+      <c r="D337">
+        <v>60</v>
+      </c>
+      <c r="E337" t="s">
+        <v>33</v>
+      </c>
+      <c r="F337">
+        <v>19440</v>
+      </c>
+      <c r="G337">
+        <v>2854440</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>109</v>
+      </c>
+      <c r="B338" t="s">
+        <v>128</v>
+      </c>
+      <c r="C338" t="s">
+        <v>168</v>
+      </c>
+      <c r="D338">
+        <v>60</v>
+      </c>
+      <c r="E338" t="s">
+        <v>33</v>
+      </c>
+      <c r="F338">
+        <v>13720</v>
+      </c>
+      <c r="G338">
+        <v>1253140</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>110</v>
+      </c>
+      <c r="B339" t="s">
+        <v>129</v>
+      </c>
+      <c r="C339" t="s">
+        <v>168</v>
+      </c>
+      <c r="D339">
+        <v>60</v>
+      </c>
+      <c r="E339" t="s">
+        <v>33</v>
+      </c>
+      <c r="F339">
+        <v>15680</v>
+      </c>
+      <c r="G339">
+        <v>1499120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
